--- a/xlsx/阿拉伯之春_intext.xlsx
+++ b/xlsx/阿拉伯之春_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="647">
   <si>
     <t>阿拉伯之春</t>
   </si>
@@ -29,13 +29,13 @@
     <t>北非</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿拉伯之春</t>
+    <t>政策_政策_美国_阿拉伯之春</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -47,31 +47,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>能源危機</t>
+    <t>能源危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%85%90%E6%95%97</t>
   </si>
   <si>
-    <t>政治腐敗</t>
+    <t>政治腐败</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E7%9B%9C%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>竊盜統治</t>
+    <t>窃盗统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%B4%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>宗派主義</t>
+    <t>宗派主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%AA%E7%94%B1</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83%E6%9B%B4%E6%9B%BF</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>多黨制</t>
+    <t>多党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E4%B8%8D%E6%9C%8D%E5%BE%9E</t>
   </si>
   <si>
-    <t>公民不服從</t>
+    <t>公民不服从</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%AA%A0</t>
   </si>
   <si>
-    <t>投誠</t>
+    <t>投诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E5%A8%81</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>暴動</t>
+    <t>暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%9A</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E4%BA%8B</t>
   </si>
   <si>
-    <t>舉事</t>
+    <t>举事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%9D%90%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>靜坐示威</t>
+    <t>静坐示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>社群媒體</t>
+    <t>社群媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E5%9B%A0%C2%B7%E9%98%BF%E6%AF%94%E4%B8%81%C2%B7%E7%8F%AD%C2%B7%E9%98%BF%E9%87%8C</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E5%9F%83%E5%8F%8A%E6%94%BF%E8%AE%8A%E4%BA%8B%E5%BE%8C%E5%8B%95%E7%9B%AA</t>
   </si>
   <si>
-    <t>2013年埃及政變事後動盪</t>
+    <t>2013年埃及政变事后动荡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B%E5%8A%A8%E4%B9%B1</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E8%90%A8%E5%88%A9%E8%B5%AB</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94%E9%98%BF%E6%8B%89%E4%BC%AF%E5%8D%8A%E5%B3%B6%E5%88%86%E6%94%AF</t>
   </si>
   <si>
-    <t>蓋達組織阿拉伯半島分支</t>
+    <t>盖达组织阿拉伯半岛分支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%A7%BB%E6%B0%91%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>歐洲移民危機</t>
+    <t>欧洲移民危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -425,9 +425,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
   </si>
   <si>
-    <t>中东</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/1848%E5%B9%B4%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD%E6%A0%BC</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>外交政策 (雜誌)</t>
+    <t>外交政策 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
@@ -497,9 +494,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>毛里塔尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%89%E8%8E%89%E8%8A%B1%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%A9%86%E5%B0%94%E8%A5%BF</t>
   </si>
   <si>
@@ -563,9 +554,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>伊斯兰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8A%AA%E5%B8%8C</t>
   </si>
   <si>
@@ -575,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%94%BF%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>憲政民主聯盟</t>
+    <t>宪政民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E5%88%B6%E5%AE%AA%E8%AE%AE%E4%BC%9A</t>
@@ -593,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%EF%BC%8D2012%E5%B9%B4%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%8F%8D%E6%94%BF%E5%BA%9C%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>2010－2012年阿爾及利亞反政府示威</t>
+    <t>2010－2012年阿尔及利亚反政府示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%E4%BA%8C%E4%B8%96</t>
@@ -617,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E7%B4%84%E6%97%A6%E5%8F%8D%E6%94%BF%E5%BA%9C%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>2011年約旦反政府示威</t>
+    <t>2011年约旦反政府示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E8%91%89%E9%96%80%E5%8F%8D%E6%94%BF%E5%BA%9C%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>2011年葉門反政府示威</t>
+    <t>2011年叶门反政府示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%B0%94%C2%B7%E5%B7%B4%E5%B8%8C%E5%B0%94</t>
@@ -689,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E5%9F%BA</t>
   </si>
   <si>
-    <t>馬利基</t>
+    <t>马利基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%C2%B7%E5%93%88%E9%87%8C%E7%99%BC%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>阿勒·哈里發家族</t>
+    <t>阿勒·哈里发家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>海合會</t>
+    <t>海合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%B7%B4%E6%9E%97%E5%8F%8D%E6%94%BF%E5%BA%9C%E7%A4%BA%E5%A8%81</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%8F%AD%E5%8A%A0%E8%A5%BF%E6%94%BB%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2012年班加西攻擊事件</t>
+    <t>2012年班加西攻击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E5%A4%AB%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
@@ -797,9 +785,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
   </si>
   <si>
-    <t>人权</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AA%E6%B1%A1%E8%85%90%E8%B4%A5</t>
   </si>
   <si>
@@ -827,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E2%80%932008%E5%B9%B4%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2007年–2008年環球金融危機</t>
+    <t>2007年–2008年环球金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E5%B8%82</t>
@@ -839,25 +824,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%BF%AA%E5%B8%83%E6%BF%9F%E5%BE%B7</t>
   </si>
   <si>
-    <t>西迪布濟德</t>
+    <t>西迪布济德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
   </si>
   <si>
-    <t>失業率</t>
+    <t>失业率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
@@ -869,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>起義</t>
+    <t>起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4</t>
   </si>
   <si>
-    <t>戒嚴</t>
+    <t>戒严</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%8A%A0%E5%8A%AA%E5%B8%8C</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%9F%83%E7%88%BE%E5%B7%B4%E6%8B%89%E8%BF%AA</t>
   </si>
   <si>
-    <t>穆罕默德·埃爾巴拉迪</t>
+    <t>穆罕默德·埃尔巴拉迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%BE%BE</t>
@@ -953,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安理會</t>
+    <t>联合国安理会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%831973%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會1973號決議</t>
+    <t>联合国安理会1973号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%A3%9E%E5%8C%BA</t>
@@ -1007,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%BE%B7%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>錫德拉灣</t>
+    <t>锡德拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%BD%90%E9%BD%90%E4%BA%9A%E5%85%B5%E8%90%A5</t>
@@ -1043,9 +1025,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%82%A3</t>
   </si>
   <si>
-    <t>薩那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%93%A6%E5%BA%93%C2%B7%E5%8D%A1%E6%9B%BC</t>
   </si>
   <si>
@@ -1055,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E4%BC%8A%E8%8C%B2</t>
   </si>
   <si>
-    <t>塔伊茲</t>
+    <t>塔伊兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%8F%B0%E9%81%94</t>
   </si>
   <si>
-    <t>荷台達</t>
+    <t>荷台达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%8D%9C</t>
@@ -1085,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%88%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>復興黨</t>
+    <t>复兴党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
   </si>
   <si>
-    <t>大馬士革</t>
+    <t>大马士革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E9%A0%97</t>
   </si>
   <si>
-    <t>阿勒頗</t>
+    <t>阿勒颇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%A1%9E%E5%85%8B</t>
@@ -1121,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>哈馬</t>
+    <t>哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A7%86%E6%96%AF_(%E6%95%98%E5%88%A9%E4%BA%9E)</t>
   </si>
   <si>
-    <t>霍姆斯 (敘利亞)</t>
+    <t>霍姆斯 (叙利亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B2%99%E5%B0%94%C2%B7%E9%98%BF%E8%90%A8%E5%BE%B7</t>
@@ -1145,25 +1124,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A2%85%E4%BC%A6</t>
@@ -1181,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>伊斯蘭祈禱團</t>
+    <t>伊斯兰祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%92%8C%E6%B2%99%E5%A7%86%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
@@ -1211,15 +1190,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80</t>
   </si>
   <si>
-    <t>也門</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE</t>
   </si>
   <si>
@@ -1229,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%B7%B4%E6%8B%89</t>
   </si>
   <si>
-    <t>卡爾巴拉</t>
+    <t>卡尔巴拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
@@ -1283,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1295,19 +1268,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9C%B0%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅地亞</t>
+    <t>克罗地亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -1319,15 +1292,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E8%8B%B1%E5%9B%BD%E9%AA%9A%E4%B9%B1</t>
   </si>
   <si>
@@ -1337,25 +1307,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%94%E9%A0%98%E8%8F%AF%E7%88%BE%E8%A1%97</t>
   </si>
   <si>
-    <t>佔領華爾街</t>
+    <t>佔领华尔街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哈薩克</t>
+    <t>哈萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -1373,13 +1340,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%86%85%E5%9C%B0</t>
@@ -1403,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1415,13 +1382,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%89%E6%9B%B8</t>
   </si>
   <si>
-    <t>臉書</t>
+    <t>脸书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E7%89%B9</t>
@@ -1445,13 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿拉伯大起義</t>
+    <t>阿拉伯大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5_(%E6%94%BF%E6%B2%BB%E8%A1%93%E8%AA%9E)</t>
   </si>
   <si>
-    <t>春 (政治術語)</t>
+    <t>春 (政治术语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E8%8C%89%E8%8E%89%E8%8A%B1%E9%9D%A9%E5%91%BD</t>
@@ -1463,19 +1427,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%8C%89%E8%8E%89%E8%8A%B1%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>中國茉莉花革命</t>
+    <t>中国茉莉花革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90%E5%8A%87%E8%AE%8A</t>
   </si>
   <si>
-    <t>東歐劇變</t>
+    <t>东欧剧变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E5%92%8C%E5%8F%9B%E4%BA%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>革命和叛亂列表</t>
+    <t>革命和叛乱列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B9%8B%E6%98%A5</t>
@@ -1487,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%EF%BC%8D2011%E5%B9%B4%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E5%8F%8D%E6%94%BF%E5%BA%9C%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>2010－2011年阿爾及利亞反政府示威</t>
+    <t>2010－2011年阿尔及利亚反政府示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%B7%B4%E6%8B%89%E8%BF%AA</t>
@@ -1499,15 +1463,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E7%88%BE%C2%B7%E9%87%8C%E6%B3%95%E4%BC%8A</t>
   </si>
   <si>
-    <t>薩米爾·里法伊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E8%96%A9%E5%88%A9%E8%B5%AB</t>
   </si>
   <si>
-    <t>阿里·阿卜杜拉·薩利赫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%98%BF%E9%BD%90%E5%85%B9%C2%B7%E5%B8%83%E7%89%B9%E5%BC%97%E5%88%A9%E5%8D%A1</t>
   </si>
   <si>
@@ -1517,13 +1475,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E9%87%8C%C2%B7%E5%8D%A1%E9%82%81%E5%8B%92%C2%B7%E9%A6%AC%E5%88%A9%E5%9F%BA</t>
   </si>
   <si>
-    <t>努里·卡邁勒·馬利基</t>
+    <t>努里·卡迈勒·马利基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE-%E6%B5%B7%E7%8F%8A%C2%B7%E7%A9%86%E8%96%A9%E7%B6%AD</t>
   </si>
   <si>
-    <t>米爾-海珊·穆薩維</t>
+    <t>米尔-海珊·穆萨维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%A7%86%E6%89%8E%C2%B7%E9%98%BF%E9%87%8C%C2%B7%E5%93%88%E7%89%B9%E8%B4%9D%E4%B9%8B%E6%AD%BB</t>
@@ -1535,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%85%84%E5%BC%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>穆斯林兄弟會</t>
+    <t>穆斯林兄弟会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/4%E6%9C%886%E6%97%A5%E9%9D%92%E5%B9%B4%E8%BF%90%E5%8A%A8</t>
@@ -1565,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%831970%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會1970號決議</t>
+    <t>联合国安理会1970号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%86%85%E6%88%98%E5%AF%B9%E9%BB%8E%E5%B7%B4%E5%AB%A9%E7%9A%84%E5%BD%B1%E5%93%8D</t>
@@ -1607,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%C2%B7%E6%88%88%E5%AF%A7</t>
   </si>
   <si>
-    <t>威爾·戈寧</t>
+    <t>威尔·戈宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%88%E5%8B%92%C2%B7%E8%A9%B9%E7%A5%96%E9%87%8C</t>
@@ -1805,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%A7%A3%E6%94%BE%E8%BB%8D</t>
   </si>
   <si>
-    <t>國民解放軍</t>
+    <t>国民解放军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%85%A8%E5%9B%BD%E8%BF%87%E6%B8%A1%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1895,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%BF%9D%E8%A1%9B%E8%BB%8D</t>
   </si>
   <si>
-    <t>人民保衛軍</t>
+    <t>人民保卫军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E5%8F%98%E9%9D%A9%E5%92%8C%E8%A7%A3%E6%94%BE%E4%BA%BA%E6%B0%91%E9%98%B5%E7%BA%BF</t>
@@ -1931,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>真主黨</t>
+    <t>真主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%88%A9%E7%8F%AD</t>
@@ -1955,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%81%E6%9C%8D%E6%B2%99%E5%A7%86%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>征服沙姆陣線</t>
+    <t>征服沙姆阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E9%A9%AC%E6%A0%BC%E9%87%8C%E5%B8%83%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
@@ -1979,19 +1937,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭恐怖主義</t>
+    <t>伊斯兰恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭法西斯主義</t>
+    <t>伊斯兰法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
   </si>
   <si>
-    <t>聖戰者</t>
+    <t>圣战者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -4340,7 +4298,7 @@
         <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4366,10 +4324,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4395,10 +4353,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4424,10 +4382,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4453,10 +4411,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4482,10 +4440,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4511,10 +4469,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4540,10 +4498,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -4569,10 +4527,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4627,10 +4585,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>14</v>
@@ -4656,10 +4614,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4685,10 +4643,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -4714,10 +4672,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4743,10 +4701,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4772,10 +4730,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>14</v>
@@ -4801,10 +4759,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -4830,10 +4788,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>18</v>
@@ -4859,10 +4817,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4888,10 +4846,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>10</v>
@@ -4946,10 +4904,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4975,10 +4933,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -5033,10 +4991,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5062,10 +5020,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5091,10 +5049,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="G95" t="n">
         <v>5</v>
@@ -5120,10 +5078,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5149,10 +5107,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5178,10 +5136,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5207,10 +5165,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5236,10 +5194,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -5265,10 +5223,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5294,10 +5252,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5323,10 +5281,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5352,10 +5310,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5381,10 +5339,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>7</v>
@@ -5439,10 +5397,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -5468,10 +5426,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5497,10 +5455,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -5526,10 +5484,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5555,10 +5513,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5584,10 +5542,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5613,10 +5571,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5642,10 +5600,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5671,10 +5629,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -5700,10 +5658,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5729,10 +5687,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5758,10 +5716,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5816,10 +5774,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5845,10 +5803,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5874,10 +5832,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5903,10 +5861,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5932,10 +5890,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5961,10 +5919,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5990,10 +5948,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6019,10 +5977,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6048,10 +6006,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -6077,10 +6035,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6106,10 +6064,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6135,10 +6093,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6164,10 +6122,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6193,10 +6151,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6222,10 +6180,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6251,10 +6209,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>21</v>
@@ -6280,10 +6238,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6309,10 +6267,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6338,10 +6296,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6367,10 +6325,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6396,10 +6354,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6425,10 +6383,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>12</v>
@@ -6454,10 +6412,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6512,10 +6470,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6541,10 +6499,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6570,10 +6528,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6599,10 +6557,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6628,10 +6586,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6657,10 +6615,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6686,10 +6644,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G150" t="n">
         <v>16</v>
@@ -6715,10 +6673,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6744,10 +6702,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6773,10 +6731,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6802,10 +6760,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6831,10 +6789,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -6860,10 +6818,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6889,10 +6847,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6918,10 +6876,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F158" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6947,10 +6905,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6976,10 +6934,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7005,10 +6963,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7034,10 +6992,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7063,10 +7021,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G163" t="n">
         <v>10</v>
@@ -7092,10 +7050,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7121,10 +7079,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7150,10 +7108,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -7179,10 +7137,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7208,10 +7166,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7237,10 +7195,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -7266,10 +7224,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G170" t="n">
         <v>7</v>
@@ -7295,10 +7253,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -7324,10 +7282,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7353,10 +7311,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7382,10 +7340,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7411,10 +7369,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7440,10 +7398,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7469,10 +7427,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7498,10 +7456,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7527,10 +7485,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7556,10 +7514,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -7585,10 +7543,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F181" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7643,10 +7601,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7672,10 +7630,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7701,10 +7659,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F185" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7730,10 +7688,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7759,10 +7717,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7788,10 +7746,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7817,10 +7775,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G189" t="n">
         <v>8</v>
@@ -7846,10 +7804,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7875,10 +7833,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7904,10 +7862,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7933,10 +7891,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7962,10 +7920,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7991,10 +7949,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G195" t="n">
         <v>5</v>
@@ -8020,10 +7978,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8049,10 +8007,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8078,10 +8036,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8107,10 +8065,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8136,10 +8094,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F200" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8165,10 +8123,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8194,10 +8152,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F202" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8223,10 +8181,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8252,10 +8210,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8281,10 +8239,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8310,10 +8268,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8339,10 +8297,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8368,10 +8326,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8397,10 +8355,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8426,10 +8384,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8455,10 +8413,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8484,10 +8442,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8513,10 +8471,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -8542,10 +8500,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -8571,10 +8529,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>153</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8600,10 +8558,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G216" t="n">
         <v>28</v>
@@ -8629,10 +8587,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F217" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8658,10 +8616,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8687,10 +8645,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8716,10 +8674,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8745,10 +8703,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8774,10 +8732,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -8803,10 +8761,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8832,10 +8790,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8861,10 +8819,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8890,10 +8848,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F226" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8919,10 +8877,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G227" t="n">
         <v>7</v>
@@ -8948,10 +8906,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F228" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8977,10 +8935,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9006,10 +8964,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G230" t="n">
         <v>12</v>
@@ -9035,10 +8993,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9064,10 +9022,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -9093,10 +9051,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -9122,10 +9080,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9151,10 +9109,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F235" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9180,10 +9138,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F236" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9209,10 +9167,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F237" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9238,10 +9196,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F238" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9267,10 +9225,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F239" t="s">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="G239" t="n">
         <v>8</v>
@@ -9296,10 +9254,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F240" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9325,10 +9283,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G241" t="n">
         <v>5</v>
@@ -9354,10 +9312,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9383,10 +9341,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9412,10 +9370,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9441,10 +9399,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9470,10 +9428,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9499,10 +9457,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9528,10 +9486,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9557,10 +9515,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9586,10 +9544,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -9615,10 +9573,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F251" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9644,10 +9602,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9702,10 +9660,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F254" t="s">
-        <v>466</v>
+        <v>88</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9731,10 +9689,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F255" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9760,10 +9718,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F256" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9789,10 +9747,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F257" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9818,10 +9776,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F258" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9847,10 +9805,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F259" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9876,10 +9834,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F260" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9905,10 +9863,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F261" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9934,10 +9892,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F262" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9963,10 +9921,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>136</v>
+      </c>
+      <c r="F263" t="s">
         <v>137</v>
-      </c>
-      <c r="F263" t="s">
-        <v>138</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9992,10 +9950,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F264" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10021,10 +9979,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F265" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10050,10 +10008,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F266" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G266" t="n">
         <v>5</v>
@@ -10108,10 +10066,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F268" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G268" t="n">
         <v>4</v>
@@ -10137,10 +10095,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F269" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10166,10 +10124,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F270" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10195,10 +10153,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F271" t="s">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10224,10 +10182,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F272" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10282,10 +10240,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F274" t="s">
-        <v>496</v>
+        <v>120</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10311,10 +10269,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F275" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10340,10 +10298,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F276" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10369,10 +10327,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F277" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10398,10 +10356,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F278" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10427,10 +10385,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F279" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10456,10 +10414,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F280" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10485,10 +10443,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F281" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10514,10 +10472,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F282" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10543,10 +10501,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F283" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10572,10 +10530,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F284" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10601,10 +10559,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F285" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10630,10 +10588,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F286" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10659,10 +10617,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F287" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10688,10 +10646,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F288" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10746,10 +10704,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F290" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10775,10 +10733,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F291" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10804,10 +10762,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F292" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10891,10 +10849,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F295" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10920,10 +10878,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F296" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10949,10 +10907,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F297" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10978,10 +10936,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F298" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11007,10 +10965,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F299" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11036,10 +10994,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F300" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11065,10 +11023,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F301" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11094,10 +11052,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F302" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11123,10 +11081,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F303" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11152,10 +11110,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F304" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11181,10 +11139,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F305" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11210,10 +11168,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F306" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11239,10 +11197,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F307" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11268,10 +11226,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F308" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11297,10 +11255,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F309" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11326,10 +11284,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F310" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11355,10 +11313,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F311" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11384,10 +11342,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F312" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11413,10 +11371,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F313" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11442,10 +11400,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F314" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11471,10 +11429,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F315" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11500,10 +11458,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F316" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11529,10 +11487,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F317" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11558,10 +11516,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F318" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11587,10 +11545,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F319" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11616,10 +11574,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F320" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11674,10 +11632,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F322" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11703,10 +11661,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F323" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11732,10 +11690,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F324" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11761,10 +11719,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F325" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11790,10 +11748,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F326" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11819,10 +11777,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F327" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11848,10 +11806,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F328" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11877,10 +11835,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F329" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11906,10 +11864,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F330" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11935,10 +11893,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F331" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11964,10 +11922,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F332" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11993,10 +11951,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F333" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12022,10 +11980,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F334" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12051,10 +12009,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F335" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12080,10 +12038,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F336" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12109,10 +12067,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F337" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12138,10 +12096,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F338" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12167,10 +12125,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F339" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12196,10 +12154,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F340" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12225,10 +12183,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F341" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12254,10 +12212,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F342" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12283,10 +12241,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F343" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12312,10 +12270,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F344" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12341,10 +12299,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F345" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12370,10 +12328,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F346" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12399,10 +12357,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F347" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12428,10 +12386,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F348" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12457,10 +12415,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F349" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12486,10 +12444,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F350" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12515,10 +12473,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F351" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12544,10 +12502,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F352" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12573,10 +12531,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F353" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12602,10 +12560,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F354" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12631,10 +12589,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F355" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12660,10 +12618,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F356" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12689,10 +12647,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F357" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12718,10 +12676,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F358" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -12747,10 +12705,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F359" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -12776,10 +12734,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F360" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12805,10 +12763,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F361" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12834,10 +12792,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="F362" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -12863,10 +12821,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F363" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -12892,10 +12850,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F364" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -12921,10 +12879,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F365" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -12950,10 +12908,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="F366" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -12979,10 +12937,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F367" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13008,10 +12966,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F368" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
